--- a/aux/programs-info.xlsx
+++ b/aux/programs-info.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
   <si>
     <t xml:space="preserve">Filename</t>
   </si>
@@ -31,9 +31,15 @@
     <t xml:space="preserve">./global-libraries.R</t>
   </si>
   <si>
+    <t xml:space="preserve">Defines libraries used globally in various pieces (text, analysis, and documentation)</t>
+  </si>
+  <si>
     <t xml:space="preserve">./pathconfig.R</t>
   </si>
   <si>
+    <t xml:space="preserve">Defines various relative paths</t>
+  </si>
+  <si>
     <t xml:space="preserve">./programs/_footnotes.R</t>
   </si>
   <si>
@@ -82,30 +88,21 @@
     <t xml:space="preserve">Old program to get Crossref info for bib files for all the articles. May no longer be functional.</t>
   </si>
   <si>
-    <t xml:space="preserve">./programs/20_analytics.R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Old program, consolidates datasources into the main dataset, then conducts simple analyses. Most output appears only in the appendix.</t>
-  </si>
-  <si>
     <t xml:space="preserve">./programs/25_prepare_sample.R</t>
   </si>
   <si>
+    <t xml:space="preserve">Uses downloaded data and generates the analysis sample</t>
+  </si>
+  <si>
     <t xml:space="preserve">./programs/30_results1.R</t>
   </si>
   <si>
+    <t xml:space="preserve">Original analysis, now only used for appendix tables.</t>
+  </si>
+  <si>
     <t xml:space="preserve">./programs/31_results2.R</t>
   </si>
   <si>
-    <t xml:space="preserve">./programs/32_conclusion.R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">./programs/35_appendix.R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">./programs/36_list-articles.R</t>
-  </si>
-  <si>
     <t xml:space="preserve">./programs/40_supplementary1.R</t>
   </si>
   <si>
@@ -121,55 +118,91 @@
     <t xml:space="preserve">./programs/42_prepare_authors.R</t>
   </si>
   <si>
+    <t xml:space="preserve">Query to openAlex for author and institution information</t>
+  </si>
+  <si>
     <t xml:space="preserve">./programs/43_supplementary4.R</t>
   </si>
   <si>
+    <t xml:space="preserve">Processes the author and institution information, completing missing information</t>
+  </si>
+  <si>
     <t xml:space="preserve">./programs/44_supplementary_authexp.R</t>
   </si>
   <si>
+    <t xml:space="preserve">This program primarily handles computing academic age of author</t>
+  </si>
+  <si>
     <t xml:space="preserve">./programs/45_supplementary_hindex.R</t>
   </si>
   <si>
+    <t xml:space="preserve">Re-computes the h-index per author and year</t>
+  </si>
+  <si>
     <t xml:space="preserve">./programs/46_prepare_analysis.R</t>
   </si>
   <si>
+    <t xml:space="preserve">Combine the various pieces into a single analysis file for the bibliometric analysis.</t>
+  </si>
+  <si>
     <t xml:space="preserve">./programs/47_prepare_mainOA.R</t>
   </si>
   <si>
+    <t xml:space="preserve">Add additional pieces to the analysis</t>
+  </si>
+  <si>
     <t xml:space="preserve">./programs/48_mainOA_authorpaper_stats.R</t>
   </si>
   <si>
+    <t xml:space="preserve">Summary statistics: Papers and authors</t>
+  </si>
+  <si>
     <t xml:space="preserve">./programs/49_assignments.R</t>
   </si>
   <si>
+    <t xml:space="preserve">Summary statistics: Assignments</t>
+  </si>
+  <si>
     <t xml:space="preserve">./programs/50_analysis_openAlex.R</t>
   </si>
   <si>
+    <t xml:space="preserve">Core analysis</t>
+  </si>
+  <si>
     <t xml:space="preserve">./programs/51_analysis_Poisson.R</t>
   </si>
   <si>
+    <t xml:space="preserve">Poisson models</t>
+  </si>
+  <si>
     <t xml:space="preserve">./programs/52_robustess_standarderrors.R</t>
   </si>
   <si>
-    <t xml:space="preserve">./programs/99_write_nums.R</t>
+    <t xml:space="preserve">Robust standard errors</t>
   </si>
   <si>
     <t xml:space="preserve">./programs/99_zz_info.R</t>
   </si>
   <si>
-    <t xml:space="preserve">./programs/config-private.R</t>
+    <t xml:space="preserve">System information</t>
   </si>
   <si>
     <t xml:space="preserve">./programs/config.R</t>
   </si>
   <si>
-    <t xml:space="preserve">./programs/function_latexnums.R</t>
+    <t xml:space="preserve">Basic configuration</t>
   </si>
   <si>
     <t xml:space="preserve">./programs/libraries.R</t>
   </si>
   <si>
+    <t xml:space="preserve">All libraries used</t>
+  </si>
+  <si>
     <t xml:space="preserve">./text/libraries.R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Additional libraries (possibly no longer relevant, kept for robustness)</t>
   </si>
 </sst>
 </file>
@@ -184,6 +217,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -243,8 +277,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -257,15 +295,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -380,241 +409,263 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="36.62"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B2" s="0" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>3</v>
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>5</v>
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>7</v>
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>9</v>
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>11</v>
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>13</v>
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>15</v>
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>17</v>
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>19</v>
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>20</v>
+      <c r="A12" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>22</v>
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>23</v>
+      <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>24</v>
+      <c r="A15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>25</v>
+      <c r="A16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>26</v>
+      <c r="A17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>27</v>
+      <c r="A18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>28</v>
+      <c r="A19" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>30</v>
+      <c r="A20" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>32</v>
+      <c r="A21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>33</v>
+      <c r="A22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>34</v>
+      <c r="A23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>35</v>
+      <c r="A24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>36</v>
+      <c r="A25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>37</v>
+      <c r="A26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>38</v>
+      <c r="A27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>39</v>
+      <c r="A28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>40</v>
+      <c r="A29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>41</v>
+      <c r="A30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>49</v>
+      <c r="A31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
